--- a/Meilenstein 2/Dokumente/Anforderungen.xlsx
+++ b/Meilenstein 2/Dokumente/Anforderungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EB283B-4BAB-4CD2-9CE1-0AE96902FC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F4EFCF-642A-466E-84F6-73B4E5F94D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C6C3DE76-B0CB-4CAF-AB3C-4B10C6160C6B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
   <si>
     <t>Anforderungsliste für Unterwasserdrohne</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>€</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>TR</t>
   </si>
 </sst>
 </file>
@@ -342,21 +348,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -414,17 +414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -521,133 +510,120 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A4869-0D35-4692-B6F7-83182857A7F4}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,775 +955,822 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="10"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="35" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="26"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="2">
         <v>0.2</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="2">
         <v>0.5</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="26"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="26"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="4">
         <v>744</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="4">
         <v>1400</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="4">
         <v>2100</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="26"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="4">
         <v>9600</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="4">
         <v>19200</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="4">
         <v>38400</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="26"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="26"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="26"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="26"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="26"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="2">
         <v>2</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="2">
         <v>10</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="26"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="4">
         <v>9600</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="4">
         <v>19200</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="4">
         <v>38400</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="26"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="26"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="2">
         <v>500</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="2">
         <v>200</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="2">
         <v>100</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="2">
         <v>500</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="2">
         <v>200</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="2">
         <v>100</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="40" t="s">
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="2">
         <v>10</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="2">
         <v>20</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="2">
         <v>40</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="2">
         <v>3</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="2">
         <v>7</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="4">
         <v>744</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="4">
         <v>1400</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="4">
         <v>2100</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="10"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="10"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="14" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="14" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="16" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A32:I33"/>
-    <mergeCell ref="C34:D37"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
     <mergeCell ref="D1:E3"/>
     <mergeCell ref="A34:B35"/>
     <mergeCell ref="A36:B37"/>
@@ -1762,6 +1785,11 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A32:I33"/>
+    <mergeCell ref="C34:D37"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meilenstein 2/Dokumente/Anforderungen.xlsx
+++ b/Meilenstein 2/Dokumente/Anforderungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F4EFCF-642A-466E-84F6-73B4E5F94D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F77C5A-3B43-487F-84E7-01113F7BC49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C6C3DE76-B0CB-4CAF-AB3C-4B10C6160C6B}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Methodisches Konstruieren</t>
   </si>
   <si>
-    <t>Leon Scharz, Tobias Röbke, Pascal Roschkowski, Philipp Otto</t>
-  </si>
-  <si>
     <t>Auftragsnummer: WiSe 2020</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>TR</t>
+  </si>
+  <si>
+    <t>Leon Schwarz, Tobias Röbke, Pascal Roschkowski, Philipp Otto</t>
   </si>
 </sst>
 </file>
@@ -539,6 +539,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -548,83 +566,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A4869-0D35-4692-B6F7-83182857A7F4}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,85 +955,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="25" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1052,16 +1052,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1073,16 +1073,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>0.2</v>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1102,16 +1102,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1123,16 +1123,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1144,16 +1144,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="4">
         <v>744</v>
@@ -1165,7 +1165,7 @@
         <v>2100</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1173,16 +1173,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1194,16 +1194,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="4">
         <v>9600</v>
@@ -1215,7 +1215,7 @@
         <v>38400</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1223,16 +1223,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1244,16 +1244,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1265,16 +1265,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1286,16 +1286,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1307,16 +1307,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1328,16 +1328,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="F18" s="2">
         <v>2</v>
@@ -1349,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1357,16 +1357,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1378,16 +1378,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="F20" s="4">
         <v>9600</v>
@@ -1399,7 +1399,7 @@
         <v>38400</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1407,16 +1407,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1428,16 +1428,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1449,16 +1449,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1470,28 +1470,28 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="F24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1499,16 +1499,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="F25" s="2">
         <v>500</v>
@@ -1520,7 +1520,7 @@
         <v>100</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1528,16 +1528,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="F26" s="2">
         <v>500</v>
@@ -1549,7 +1549,7 @@
         <v>100</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1557,22 +1557,22 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1580,28 +1580,28 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="F28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1609,16 +1609,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="F29" s="2">
         <v>10</v>
@@ -1630,7 +1630,7 @@
         <v>40</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1638,16 +1638,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="F30" s="2">
         <v>3</v>
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1667,16 +1667,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="12" t="s">
         <v>72</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="F31" s="4">
         <v>744</v>
@@ -1688,89 +1688,92 @@
         <v>2100</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="22"/>
+      <c r="A32" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="22"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="33" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="33" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="35" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
     <mergeCell ref="D1:E3"/>
     <mergeCell ref="A34:B35"/>
     <mergeCell ref="A36:B37"/>
@@ -1787,9 +1790,6 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A32:I33"/>
     <mergeCell ref="C34:D37"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meilenstein 2/Dokumente/Anforderungen.xlsx
+++ b/Meilenstein 2/Dokumente/Anforderungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C0BF7-4888-427A-9C10-BF2315C40CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEED965-993A-4D8A-A5AB-4A30DBB0C5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C6C3DE76-B0CB-4CAF-AB3C-4B10C6160C6B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>Anforderungsliste für Unterwasserdrohne</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Anforderungsarten: F - Forderung; W - Wunsch;                                                                                                                                                                              Namenskürzel der Mitarbeiter: Leon Schwarz - LS; Tobias Röbke - TR; Pascal Roschkowski - PR; Philipp Otto - PO</t>
+  </si>
+  <si>
+    <t>€/Jahr</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -783,51 +786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,18 +798,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -861,42 +912,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,17 +924,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,92 +1241,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A4869-0D35-4692-B6F7-83182857A7F4}">
-  <dimension ref="B1:J38"/>
+  <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="25"/>
+    <col min="2" max="2" width="11.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="27"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="19" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -1332,8 +1338,8 @@
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1348,13 +1354,13 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="33">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1363,19 +1369,19 @@
       <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="33">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1384,27 +1390,27 @@
       <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="7">
         <v>0.2</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="8">
         <v>0.5</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="8">
         <v>1</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+      <c r="B9" s="11">
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1413,19 +1419,19 @@
       <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="33">
+      <c r="B10" s="11">
         <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1434,19 +1440,19 @@
       <c r="F10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1455,27 +1461,27 @@
       <c r="F11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="13">
         <v>744</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="14">
         <v>1400</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="14">
         <v>2100</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="33">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1484,19 +1490,19 @@
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
+      <c r="B13" s="11">
         <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1505,27 +1511,27 @@
       <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="13">
         <v>9600</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="14">
         <v>19200</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="14">
         <v>38400</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="33">
+      <c r="B14" s="11">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1534,19 +1540,19 @@
       <c r="F14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+      <c r="B15" s="11">
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1555,19 +1561,19 @@
       <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="33">
+      <c r="B16" s="11">
         <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -1576,19 +1582,19 @@
       <c r="F16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
+      <c r="B17" s="11">
         <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1597,19 +1603,19 @@
       <c r="F17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="33">
+      <c r="B18" s="11">
         <v>12</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -1618,19 +1624,19 @@
       <c r="F18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
+      <c r="B19" s="11">
         <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1639,27 +1645,27 @@
       <c r="F19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="7">
         <v>2</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="8">
         <v>5</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="8">
         <v>10</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="33">
+      <c r="B20" s="11">
         <v>14</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1668,19 +1674,19 @@
       <c r="F20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="33">
+      <c r="B21" s="11">
         <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -1689,27 +1695,27 @@
       <c r="F21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="7">
         <v>9600</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="8">
         <v>19200</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="8">
         <v>38400</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="33">
+      <c r="B22" s="11">
         <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -1718,19 +1724,19 @@
       <c r="F22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+      <c r="B23" s="11">
         <v>17</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1739,19 +1745,19 @@
       <c r="F23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="33">
+      <c r="B24" s="11">
         <v>18</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -1760,19 +1766,19 @@
       <c r="F24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="33">
+      <c r="B25" s="11">
         <v>19</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1781,27 +1787,27 @@
       <c r="F25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="33">
+      <c r="B26" s="11">
         <v>20</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -1810,27 +1816,27 @@
       <c r="F26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="7">
         <v>500</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="8">
         <v>200</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="8">
         <v>100</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="33">
+      <c r="B27" s="11">
         <v>21</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -1839,257 +1845,288 @@
       <c r="F27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="7">
         <v>500</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="8">
         <v>200</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="8">
         <v>100</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="33">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
         <v>22</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="14">
+        <v>800000</v>
+      </c>
+      <c r="H28" s="53">
+        <v>900000</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
-        <v>23</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="34" t="s">
+      <c r="G29" s="13">
+        <v>60000</v>
+      </c>
+      <c r="H29" s="14">
+        <v>50000</v>
+      </c>
+      <c r="I29" s="14">
+        <v>40000</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>24</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J30" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="33">
-        <v>24</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="34" t="s">
+    <row r="31" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <v>25</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G31" s="7">
         <v>10</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H31" s="8">
         <v>20</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I31" s="8">
         <v>40</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J31" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
-        <v>25</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="34" t="s">
+    <row r="32" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>26</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G32" s="7">
         <v>3</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H32" s="8">
         <v>5</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I32" s="8">
         <v>7</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J32" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="33">
-        <v>26</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="34" t="s">
+    <row r="33" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>27</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G33" s="7">
         <v>744</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H33" s="8">
         <v>1400</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I33" s="8">
         <v>2100</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J33" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
+    <row r="34" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="45" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="19" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="50"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="45" t="s">
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="19" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="47"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="38" t="s">
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="51"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="52"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C34:E38"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E2:F4"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C35:E39"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meilenstein 2/Dokumente/Anforderungen.xlsx
+++ b/Meilenstein 2/Dokumente/Anforderungen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEED965-993A-4D8A-A5AB-4A30DBB0C5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643A5EC-396A-4B8D-9656-FA368C479038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C6C3DE76-B0CB-4CAF-AB3C-4B10C6160C6B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Anforderungsliste für Unterwasserdrohne</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>€/Jahr</t>
+  </si>
+  <si>
+    <t>Anschaffungskosten</t>
+  </si>
+  <si>
+    <t>Die Drohne soll von den Anschaffungskosten günstig sein, damit sie sich für den Kunden nach vertraglich geregelter Zeit amortisiert</t>
   </si>
 </sst>
 </file>
@@ -813,6 +819,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,15 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,74 +930,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A4869-0D35-4692-B6F7-83182857A7F4}">
   <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,54 +1270,54 @@
       <c r="B2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="45"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="25" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="25" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1321,12 +1327,12 @@
       <c r="F5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -1338,8 +1344,8 @@
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>22</v>
       </c>
@@ -1868,8 +1874,12 @@
       <c r="D28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="G28" s="14">
         <v>800000</v>
       </c>
@@ -2029,85 +2039,88 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="50"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="25" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="25" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="27"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="51"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="27"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="52"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="28" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B39"/>
@@ -2124,9 +2137,6 @@
     <mergeCell ref="C35:E39"/>
     <mergeCell ref="F35:J35"/>
     <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meilenstein 2/Dokumente/Anforderungen.xlsx
+++ b/Meilenstein 2/Dokumente/Anforderungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643A5EC-396A-4B8D-9656-FA368C479038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A6F681-855C-46BE-AB86-D214A73AA9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C6C3DE76-B0CB-4CAF-AB3C-4B10C6160C6B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
   <si>
     <t>Anforderungsliste für Unterwasserdrohne</t>
   </si>
@@ -334,6 +334,21 @@
   </si>
   <si>
     <t>Die Drohne soll von den Anschaffungskosten günstig sein, damit sie sich für den Kunden nach vertraglich geregelter Zeit amortisiert</t>
+  </si>
+  <si>
+    <t>Außmaße</t>
+  </si>
+  <si>
+    <t>Geometrischen Maße der Drohne</t>
+  </si>
+  <si>
+    <t>1x1x0.5</t>
+  </si>
+  <si>
+    <t>1,5x1x0,8</t>
+  </si>
+  <si>
+    <t>0,8x0,5x0,4</t>
   </si>
 </sst>
 </file>
@@ -365,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -768,11 +783,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -828,6 +852,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,9 +909,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -921,16 +978,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1247,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A4869-0D35-4692-B6F7-83182857A7F4}">
-  <dimension ref="B1:J39"/>
+  <dimension ref="B1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,57 +1318,57 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="26" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1327,12 +1378,12 @@
       <c r="F5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -1344,8 +1395,8 @@
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1883,7 +1934,7 @@
       <c r="G28" s="14">
         <v>800000</v>
       </c>
-      <c r="H28" s="53">
+      <c r="H28" s="23">
         <v>900000</v>
       </c>
       <c r="I28" s="14">
@@ -1996,10 +2047,10 @@
       <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="21">
         <v>3</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="22">
         <v>5</v>
       </c>
       <c r="I32" s="8">
@@ -2009,134 +2060,163 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="11">
+    <row r="33" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="16">
         <v>27</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="16">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G34" s="61">
         <v>744</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H34" s="62">
         <v>1400</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I34" s="8">
         <v>2100</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+    <row r="35" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="26" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="32"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="26" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50" t="s">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="34"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="52"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E2:F4"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E2:F4"/>
-    <mergeCell ref="C35:E39"/>
-    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C36:E40"/>
     <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meilenstein 2/Dokumente/Anforderungen.xlsx
+++ b/Meilenstein 2/Dokumente/Anforderungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A6F681-855C-46BE-AB86-D214A73AA9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318A66A5-0F1F-43B6-9291-8CDB81235D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C6C3DE76-B0CB-4CAF-AB3C-4B10C6160C6B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
   <si>
     <t>Anforderungsliste für Unterwasserdrohne</t>
   </si>
@@ -342,13 +342,31 @@
     <t>Geometrischen Maße der Drohne</t>
   </si>
   <si>
-    <t>1x1x0.5</t>
-  </si>
-  <si>
     <t>1,5x1x0,8</t>
   </si>
   <si>
     <t>0,8x0,5x0,4</t>
+  </si>
+  <si>
+    <t>Automatisierungsgrad</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Die Drohne muss in der Lage sein die Bewirtschartschaftung eines Hektars Anbaufläche bis zu einem gewissen Grad autonom durchzuführen</t>
+  </si>
+  <si>
+    <t>Lebensdauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Drohne muss die Lebensdauer mindestens erreichen um für den Kunden wirtschaftlichen zu sein </t>
+  </si>
+  <si>
+    <t>Jahre</t>
+  </si>
+  <si>
+    <t>1x0,5x0,5</t>
   </si>
 </sst>
 </file>
@@ -796,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -867,15 +885,90 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,9 +978,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,57 +990,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,12 +1015,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1298,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A4869-0D35-4692-B6F7-83182857A7F4}">
-  <dimension ref="B1:J40"/>
+  <dimension ref="B1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,8 +1342,8 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="10" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="10"/>
@@ -1318,57 +1351,57 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="24" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="24" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1378,12 +1411,12 @@
       <c r="F5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -1395,8 +1428,8 @@
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16">
         <v>27</v>
       </c>
@@ -2077,146 +2110,204 @@
         <v>101</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="16">
+    <row r="34" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B34" s="26">
         <v>28</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="29">
+        <v>80</v>
+      </c>
+      <c r="H34" s="30">
+        <v>90</v>
+      </c>
+      <c r="I34" s="24">
+        <v>95</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="26">
+        <v>29</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="29">
+        <v>10</v>
+      </c>
+      <c r="H35" s="30">
+        <v>12</v>
+      </c>
+      <c r="I35" s="24">
+        <v>15</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="26">
+        <v>30</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G36" s="29">
         <v>744</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H36" s="30">
         <v>1400</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I36" s="8">
         <v>2100</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
+    <row r="37" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="31" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="48"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="32"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="24" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="48"/>
+    </row>
+    <row r="39" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="56"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="48"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="24" t="s">
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="34"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="27" t="s">
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="48"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="57"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="48"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="58"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C38:E42"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E2:F4"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C36:E40"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
